--- a/Income/GOOGL_inc.xlsx
+++ b/Income/GOOGL_inc.xlsx
@@ -250,22 +250,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>196554000000.0</v>
+        <v>196663000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>182350000000.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>171435000000.0</v>
+        <v>171526000000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>165739000000.0</v>
+        <v>165830000000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>166537000000.0</v>
+        <v>166628000000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>161766000000.0</v>
+        <v>161857000000.0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>155058000000.0</v>
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>106701000000.0</v>
+        <v>106810000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>97618000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>91763000000.0</v>
+        <v>91854000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>89616000000.0</v>
+        <v>89707000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>91671000000.0</v>
+        <v>91762000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>89870000000.0</v>
+        <v>89961000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>86264000000.0</v>
@@ -1011,10 +1011,8 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>190000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>135000000.0</v>
@@ -1215,22 +1213,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-2762000000.0</v>
+        <v>-12419000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-7054000000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>-5742000000.0</v>
+        <v>-2465000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-3715000000.0</v>
+        <v>-438000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1133000000.0</v>
+        <v>4410000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2117000000.0</v>
+        <v>5394000000.0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>5807000000.0</v>
@@ -1341,10 +1339,8 @@
           <t>Non-operating Interest Expenses</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>1624000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1865000000.0</v>
@@ -2052,25 +2048,23 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>75.12</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>58.7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>51.75</v>
+        <v>51.89</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>45.55</v>
+        <v>45.69</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>49.75</v>
+        <v>49.89</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>49.46</v>
+        <v>49.6</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>46.98</v>
@@ -2182,7 +2176,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.5429</v>
+        <v>0.5431</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.5353</v>
@@ -2309,7 +2303,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.2528</v>
+        <v>0.2526</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2261</v>
@@ -2436,7 +2430,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.3134</v>
+        <v>0.3133</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.2637</v>
@@ -2563,7 +2557,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.2613</v>
+        <v>0.2612</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2208</v>
@@ -2690,7 +2684,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.1727</v>
+        <v>0.1726</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1428</v>
@@ -2816,25 +2810,23 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>63007000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>54744000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>47955000000.0</v>
+        <v>48046000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>45339000000.0</v>
+        <v>45430000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>47736000000.0</v>
+        <v>47827000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>45921000000.0</v>
+        <v>46012000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>44134000000.0</v>
@@ -3073,7 +3065,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>71.9549</v>
+        <v>70.2994</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>54.9215</v>
@@ -4275,7 +4267,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3204</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.3002</v>
@@ -4402,7 +4394,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.3712</v>
+        <v>0.371</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.3571</v>

--- a/Income/GOOGL_inc.xlsx
+++ b/Income/GOOGL_inc.xlsx
@@ -2182,16 +2182,16 @@
         <v>0.5353</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5353</v>
+        <v>0.5355</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5407</v>
+        <v>0.541</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5505</v>
+        <v>0.5507</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5556</v>
+        <v>0.5558</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5563</v>
@@ -2309,16 +2309,16 @@
         <v>0.2261</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2032</v>
+        <v>0.2031</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1979</v>
+        <v>0.1978</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2138</v>
+        <v>0.2136</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2116</v>
+        <v>0.2115</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.214</v>
@@ -2436,16 +2436,16 @@
         <v>0.2637</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2339</v>
+        <v>0.2338</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2134</v>
+        <v>0.2133</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2356</v>
+        <v>0.2355</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.245</v>
+        <v>0.2448</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2515</v>
@@ -2563,16 +2563,16 @@
         <v>0.2208</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2083</v>
+        <v>0.2082</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2073</v>
+        <v>0.2072</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2123</v>
+        <v>0.2122</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2104</v>
@@ -2690,7 +2690,7 @@
         <v>0.1428</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.0964</v>
+        <v>0.0963</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0.0824</v>
@@ -4273,16 +4273,16 @@
         <v>0.3002</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2797</v>
+        <v>0.2801</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2736</v>
+        <v>0.274</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2866</v>
+        <v>0.287</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2839</v>
+        <v>0.2843</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2846</v>
@@ -4400,16 +4400,16 @@
         <v>0.3571</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.3318</v>
+        <v>0.3316</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.3339</v>
+        <v>0.3337</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.3241</v>
+        <v>0.3239</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.337</v>
+        <v>0.3368</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3423</v>
